--- a/log/data_6o_dubins_only.xlsx
+++ b/log/data_6o_dubins_only.xlsx
@@ -542,12 +542,12 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000494</t>
+          <t>0.00068</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -557,22 +557,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>0.000235</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.000614</t>
+          <t>0.000977</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.092396</t>
+          <t>0.0644128</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.221573</t>
+          <t>0.132986</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -630,12 +630,12 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>3.4e-05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000475</t>
+          <t>0.00114</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>0.000146</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.000548</t>
+          <t>0.00132</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.055273</t>
+          <t>0.0795268</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.149575</t>
+          <t>0.286049</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -718,12 +718,12 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.2e-05</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.000534</t>
+          <t>0.001294</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -733,22 +733,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.000124</t>
+          <t>0.00012</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.00069</t>
+          <t>0.001543</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0801821</t>
+          <t>0.0843719</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.213374</t>
+          <t>0.291398</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -806,12 +806,12 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2e-05</t>
+          <t>6.1e-05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.00054</t>
+          <t>0.000988</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -821,22 +821,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>0.000451</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.000672</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.0713841</t>
+          <t>0.0845338</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.204068</t>
+          <t>0.162906</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -894,12 +894,12 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3e-05</t>
+          <t>1.2e-05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.000537</t>
+          <t>0.001257</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -909,22 +909,22 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.000685</t>
+          <t>0.001392</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.076636</t>
+          <t>0.0985268</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.205743</t>
+          <t>0.298982</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -982,12 +982,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>5.7e-05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.000524</t>
+          <t>0.001271</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.00073</t>
+          <t>0.001469</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.091728</t>
+          <t>0.0887067</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.264023</t>
+          <t>0.285873</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1070,12 +1070,12 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>4.6e-05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.000506</t>
+          <t>0.001098</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1085,22 +1085,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>8.9e-05</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.000625</t>
+          <t>0.001233</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.073915</t>
+          <t>0.0814387</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.201097</t>
+          <t>0.234988</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1158,12 +1158,12 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.9e-05</t>
+          <t>5.4e-05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.001596</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1173,22 +1173,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>0.000126</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.00062</t>
+          <t>0.001776</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.075555</t>
+          <t>0.105935</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.203775</t>
+          <t>0.306793</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1246,12 +1246,12 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>2e-05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.000484</t>
+          <t>0.001351</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.000116</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.000613</t>
+          <t>0.001492</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.0744521</t>
+          <t>0.0870597</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.202888</t>
+          <t>0.285711</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1334,12 +1334,12 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>5e-05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.000479</t>
+          <t>0.001219</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.000613</t>
+          <t>0.001332</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.079175</t>
+          <t>0.114289</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.208543</t>
+          <t>0.269401</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1422,12 +1422,12 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.000456</t>
+          <t>0.000883</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1437,22 +1437,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.001556</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.000515</t>
+          <t>0.002506</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.066951</t>
+          <t>0.0648628</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.159894</t>
+          <t>0.161826</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1510,12 +1510,12 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.000427</t>
+          <t>0.001271</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1525,22 +1525,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.000497</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.000945</t>
+          <t>0.00142</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.0668011</t>
+          <t>0.0868329</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.126696</t>
+          <t>0.243559</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1598,12 +1598,12 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.8e-05</t>
+          <t>4.6e-05</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.000535</t>
+          <t>0.000774</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1613,22 +1613,22 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.00012</t>
+          <t>0.000606</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.000673</t>
+          <t>0.001426</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.0773202</t>
+          <t>0.0686348</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.206421</t>
+          <t>0.14356</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1686,12 +1686,12 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>5.4e-05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.000539</t>
+          <t>0.002654</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.000175</t>
+          <t>0.00013</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.000731</t>
+          <t>0.002838</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.0788661</t>
+          <t>0.0870108</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.248587</t>
+          <t>0.29361</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1774,12 +1774,12 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>3.7e-05</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.000507</t>
+          <t>0.000892</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1789,22 +1789,22 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.000132</t>
+          <t>0.00071</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.000661</t>
+          <t>0.001639</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.0791281</t>
+          <t>0.0649508</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.208327</t>
+          <t>0.139815</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1862,12 +1862,12 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.000478</t>
+          <t>0.001511</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>0.000132</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.000545</t>
+          <t>0.001701</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.091791</t>
+          <t>0.103094</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.184784</t>
+          <t>0.303505</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1950,12 +1950,12 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>4.5e-05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.000531</t>
+          <t>0.001296</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1965,22 +1965,22 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.00012</t>
+          <t>0.000146</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.000666</t>
+          <t>0.001487</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.066617</t>
+          <t>0.10605</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.195684</t>
+          <t>0.310561</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2038,12 +2038,12 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.000538</t>
+          <t>0.001583</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2053,22 +2053,22 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.000183</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.000744</t>
+          <t>0.001788</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.101357</t>
+          <t>0.0902719</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.268709</t>
+          <t>0.310347</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2126,12 +2126,12 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>2.8e-05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.000466</t>
+          <t>0.000883</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6.4e-05</t>
+          <t>0.000568</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.000544</t>
+          <t>0.001479</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.063036</t>
+          <t>0.0704309</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.154117</t>
+          <t>0.150361</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2214,12 +2214,12 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9e-06</t>
+          <t>2.8e-05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.000431</t>
+          <t>0.001464</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000364</t>
+          <t>0.000166</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000804</t>
+          <t>0.001658</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.0564011</t>
+          <t>0.118189</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.115003</t>
+          <t>0.322501</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2302,12 +2302,12 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>5.9e-05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.000491</t>
+          <t>0.001436</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2317,22 +2317,22 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.000109</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.000614</t>
+          <t>0.001558</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.0722691</t>
+          <t>0.104417</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.201825</t>
+          <t>0.260973</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2390,12 +2390,12 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.000481</t>
+          <t>0.001305</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2405,22 +2405,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.000612</t>
+          <t>0.001508</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.0630631</t>
+          <t>0.0827688</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.191311</t>
+          <t>0.239452</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2478,12 +2478,12 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.8e-05</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.001237</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2493,22 +2493,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>0.000152</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.00061</t>
+          <t>0.001456</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.075393</t>
+          <t>0.089631</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.204639</t>
+          <t>0.289951</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2566,12 +2566,12 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.000504</t>
+          <t>0.001328</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2581,22 +2581,22 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>0.000163</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.000632</t>
+          <t>0.001565</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.100646</t>
+          <t>0.12386</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.230339</t>
+          <t>0.32577</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2654,12 +2654,12 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.8e-05</t>
+          <t>6.1e-05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.000543</t>
+          <t>0.001317</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.000727</t>
+          <t>0.001523</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.105868</t>
+          <t>0.0952928</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.235103</t>
+          <t>0.315924</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2742,12 +2742,12 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2e-05</t>
+          <t>5.7e-05</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.000503</t>
+          <t>0.000957</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2757,22 +2757,22 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.000136</t>
+          <t>0.000592</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.000659</t>
+          <t>0.001606</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.0672701</t>
+          <t>0.0689898</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.196355</t>
+          <t>0.146396</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2830,12 +2830,12 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.000496</t>
+          <t>0.001204</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2845,22 +2845,22 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>0.000172</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.000622</t>
+          <t>0.001432</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.085813</t>
+          <t>0.11288</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.21445</t>
+          <t>0.316075</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2918,12 +2918,12 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>8.7e-05</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.000424</t>
+          <t>0.00115</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2933,22 +2933,22 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.000373</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.000814</t>
+          <t>0.001384</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.0637481</t>
+          <t>0.11829</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.125193</t>
+          <t>0.318713</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3006,12 +3006,12 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.1e-05</t>
+          <t>9.1e-05</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.000468</t>
+          <t>0.001105</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3021,22 +3021,22 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.000117</t>
+          <t>0.000168</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.000596</t>
+          <t>0.001364</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.070469</t>
+          <t>0.116062</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.200529</t>
+          <t>0.316337</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3094,12 +3094,12 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.000431</t>
+          <t>0.001295</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>6.7e-05</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.000514</t>
+          <t>0.001485</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.062491</t>
+          <t>0.0892949</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.153613</t>
+          <t>0.294749</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3182,12 +3182,12 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.6e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.000591</t>
+          <t>0.000942</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.000181</t>
+          <t>0.000512</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.000798</t>
+          <t>0.001497</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.0779531</t>
+          <t>0.0621348</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.243007</t>
+          <t>0.134997</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3270,12 +3270,12 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2e-05</t>
+          <t>6.1e-05</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.000512</t>
+          <t>0.001559</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3285,22 +3285,22 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>0.000124</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.00065</t>
+          <t>0.001744</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.0622321</t>
+          <t>0.112415</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.189786</t>
+          <t>0.312812</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3358,12 +3358,12 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>4.9e-05</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.000543</t>
+          <t>0.001337</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3373,22 +3373,22 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.00019</t>
+          <t>0.000126</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.000757</t>
+          <t>0.001512</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.0827922</t>
+          <t>0.0840588</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.250209</t>
+          <t>0.289789</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3446,12 +3446,12 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>6.5e-05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.000581</t>
+          <t>0.001054</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3461,22 +3461,22 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.00024</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.000838</t>
+          <t>0.001234</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.103018</t>
+          <t>0.0894599</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.271147</t>
+          <t>0.289803</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.000516</t>
+          <t>0.001409</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3549,22 +3549,22 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.000647</t>
+          <t>0.001563</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.111501</t>
+          <t>0.091126</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.239684</t>
+          <t>0.300248</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3622,12 +3622,12 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.7e-05</t>
+          <t>8.1e-05</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.000493</t>
+          <t>0.001157</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3637,22 +3637,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.000634</t>
+          <t>0.001361</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.104573</t>
+          <t>0.0835058</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.233819</t>
+          <t>0.283449</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3710,12 +3710,12 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.000484</t>
+          <t>0.001271</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3725,22 +3725,22 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>0.000135</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.000618</t>
+          <t>0.00148</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.063664</t>
+          <t>0.0919048</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.193108</t>
+          <t>0.294066</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3798,12 +3798,12 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>3.7e-05</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.000476</t>
+          <t>0.00118</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3813,22 +3813,22 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.000107</t>
+          <t>7e-05</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.000606</t>
+          <t>0.001287</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.096108</t>
+          <t>0.0861488</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.225893</t>
+          <t>0.238704</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3886,12 +3886,12 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>1.3e-05</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.000565</t>
+          <t>0.000984</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3901,22 +3901,22 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.000203</t>
+          <t>0.000412</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.000792</t>
+          <t>0.001409</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.067272</t>
+          <t>0.0626128</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.233309</t>
+          <t>0.136446</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3974,12 +3974,12 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>0.00013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.000575</t>
+          <t>0.001636</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3989,22 +3989,22 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.000256</t>
+          <t>0.000272</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.000847</t>
+          <t>0.002038</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.106882</t>
+          <t>0.0923168</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.273994</t>
+          <t>0.304249</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4062,12 +4062,12 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2.5e-05</t>
+          <t>0.000161</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.000499</t>
+          <t>0.001453</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4077,22 +4077,22 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.00063</t>
+          <t>0.001748</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.0879459</t>
+          <t>0.0761688</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.217244</t>
+          <t>0.279314</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4150,12 +4150,12 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>3.5e-05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.000405</t>
+          <t>0.001414</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4165,22 +4165,22 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.000376</t>
+          <t>0.000149</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.000794</t>
+          <t>0.001598</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.050657</t>
+          <t>0.0921418</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.109564</t>
+          <t>0.291909</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4238,12 +4238,12 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>8.3e-05</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.00054</t>
+          <t>0.000962</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4253,22 +4253,22 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.000109</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.00067</t>
+          <t>0.001186</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.096663</t>
+          <t>0.112224</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.226048</t>
+          <t>0.321987</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4326,12 +4326,12 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>4.5e-05</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.000612</t>
+          <t>0.001094</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4341,22 +4341,22 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.000196</t>
+          <t>6.5e-05</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.000822</t>
+          <t>0.001204</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.078908</t>
+          <t>0.109724</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.245852</t>
+          <t>0.268254</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4414,12 +4414,12 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>3.4e-05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.000593</t>
+          <t>0.001178</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4429,22 +4429,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.000202</t>
+          <t>0.000139</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.000816</t>
+          <t>0.001351</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.076437</t>
+          <t>0.100496</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.243721</t>
+          <t>0.30509</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4502,12 +4502,12 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.2e-05</t>
+          <t>8e-05</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.000499</t>
+          <t>0.001129</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4517,22 +4517,22 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>7.4e-05</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.000622</t>
+          <t>0.001283</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.077847</t>
+          <t>0.0777358</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.205043</t>
+          <t>0.232046</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4590,12 +4590,12 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>0.000119</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.000567</t>
+          <t>0.001571</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4605,22 +4605,22 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.000185</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.000789</t>
+          <t>0.001821</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.081263</t>
+          <t>0.0860998</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.247402</t>
+          <t>0.288978</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4678,12 +4678,12 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.9e-05</t>
+          <t>5.1e-05</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.00054</t>
+          <t>0.001279</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4693,22 +4693,22 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.000674</t>
+          <t>0.001453</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.0752141</t>
+          <t>0.104143</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.206447</t>
+          <t>0.30406</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4766,12 +4766,12 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2.6e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.000551</t>
+          <t>0.001166</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4781,22 +4781,22 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.000695</t>
+          <t>0.001387</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.0869622</t>
+          <t>0.117496</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.221037</t>
+          <t>0.320035</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4854,12 +4854,12 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>5.3e-05</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.000456</t>
+          <t>0.000971</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4869,22 +4869,22 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.000524</t>
+          <t>0.001087</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.081694</t>
+          <t>0.0973668</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.172598</t>
+          <t>0.252025</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4942,12 +4942,12 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.7e-05</t>
+          <t>1.7e-05</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.000606</t>
+          <t>0.001413</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4957,22 +4957,22 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.000184</t>
+          <t>0.000127</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.000817</t>
+          <t>0.001557</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.088891</t>
+          <t>0.0771518</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.256025</t>
+          <t>0.276154</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -5030,12 +5030,12 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1e-05</t>
+          <t>4.8e-05</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.000443</t>
+          <t>0.001089</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5045,22 +5045,22 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0.000573</t>
+          <t>0.000122</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.001026</t>
+          <t>0.001259</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.052652</t>
+          <t>0.113851</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.112261</t>
+          <t>0.340227</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -5118,12 +5118,12 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>6e-05</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.00047</t>
+          <t>0.00118</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5133,22 +5133,22 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>0.000132</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.000539</t>
+          <t>0.001372</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.0600121</t>
+          <t>0.0845787</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.1521</t>
+          <t>0.284225</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -5206,12 +5206,12 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.9e-05</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.000558</t>
+          <t>0.001372</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5221,22 +5221,22 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>0.00012</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.000688</t>
+          <t>0.00161</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.097347</t>
+          <t>0.115468</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.227967</t>
+          <t>0.317836</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5294,12 +5294,12 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>5e-05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.000545</t>
+          <t>0.001408</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5309,22 +5309,22 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.000129</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.000697</t>
+          <t>0.001576</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.0778671</t>
+          <t>0.0994648</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.205691</t>
+          <t>0.30105</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5382,12 +5382,12 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>4.9e-05</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.000601</t>
+          <t>0.001288</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5397,22 +5397,22 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.000228</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.000851</t>
+          <t>0.001458</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.105111</t>
+          <t>0.093012</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.276908</t>
+          <t>0.292843</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5470,12 +5470,12 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000536</t>
+          <t>0.001362</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.000675</t>
+          <t>0.001554</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.101062</t>
+          <t>0.0850589</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.232554</t>
+          <t>0.261014</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5558,12 +5558,12 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>6e-05</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.000515</t>
+          <t>0.001432</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5573,22 +5573,22 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>0.000135</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.000652</t>
+          <t>0.001627</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.085922</t>
+          <t>0.0903629</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.219166</t>
+          <t>0.29456</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5646,12 +5646,12 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>3.1e-05</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.000459</t>
+          <t>0.001431</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5661,22 +5661,22 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.000536</t>
+          <t>0.001598</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.065945</t>
+          <t>0.0839969</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.160213</t>
+          <t>0.279585</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5734,12 +5734,12 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>6.1e-05</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.000534</t>
+          <t>0.001154</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5749,22 +5749,22 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.000123</t>
+          <t>0.000135</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.000672</t>
+          <t>0.00135</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.0716611</t>
+          <t>0.0816418</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.203159</t>
+          <t>0.284162</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5822,12 +5822,12 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.000525</t>
+          <t>0.001397</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5837,22 +5837,22 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>0.000127</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.000669</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0.0900351</t>
+          <t>0.0789008</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0.221332</t>
+          <t>0.277271</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5910,12 +5910,12 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3.3e-05</t>
+          <t>2.9e-05</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.000479</t>
+          <t>0.001206</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5925,22 +5925,22 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>5.6e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.000568</t>
+          <t>0.001317</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.072325</t>
+          <t>0.106002</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.167351</t>
+          <t>0.266994</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5998,12 +5998,12 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3.8e-05</t>
+          <t>3.4e-05</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.000556</t>
+          <t>0.001198</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6013,22 +6013,22 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0.000117</t>
+          <t>0.000122</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.000711</t>
+          <t>0.001354</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0.0728551</t>
+          <t>0.0832919</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.204931</t>
+          <t>0.287378</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6086,12 +6086,12 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2e-05</t>
+          <t>0.000135</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.000636</t>
+          <t>0.001243</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6101,22 +6101,22 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0.000197</t>
+          <t>0.000126</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.000853</t>
+          <t>0.001504</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0.074199</t>
+          <t>0.115651</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.24639</t>
+          <t>0.319878</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6174,12 +6174,12 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>8e-06</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.000538</t>
+          <t>0.001017</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6189,22 +6189,22 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>0.000624</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.000675</t>
+          <t>0.001649</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.076086</t>
+          <t>0.0570319</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.207789</t>
+          <t>0.128783</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6262,12 +6262,12 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2.5e-05</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.000473</t>
+          <t>0.001309</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.001016</t>
+          <t>0.000132</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.001514</t>
+          <t>0.001548</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.05459</t>
+          <t>0.0797387</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.11483</t>
+          <t>0.285544</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6350,12 +6350,12 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2.7e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.000522</t>
+          <t>0.001377</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6365,22 +6365,22 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>0.00012</t>
+          <t>0.000133</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.000669</t>
+          <t>0.001585</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.0759162</t>
+          <t>0.0765228</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.212268</t>
+          <t>0.279402</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6438,12 +6438,12 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2e-05</t>
+          <t>1.5e-05</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.000521</t>
+          <t>0.001151</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6453,22 +6453,22 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.000114</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.000655</t>
+          <t>0.001325</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0.074711</t>
+          <t>0.112991</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.205376</t>
+          <t>0.316833</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6526,12 +6526,12 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3.3e-05</t>
+          <t>3.6e-05</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.000573</t>
+          <t>0.00143</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6541,22 +6541,22 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0.000132</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.000738</t>
+          <t>0.001624</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.0814172</t>
+          <t>0.0834369</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.212084</t>
+          <t>0.284794</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6614,12 +6614,12 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>0.000168</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.00057</t>
+          <t>0.001253</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6629,22 +6629,22 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>0.00013</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.000704</t>
+          <t>0.001551</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.081534</t>
+          <t>0.113694</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.21378</t>
+          <t>0.31625</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.00054</t>
+          <t>0.001676</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6717,22 +6717,22 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.000202</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.000781</t>
+          <t>0.001852</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0.075247</t>
+          <t>0.0879488</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.246314</t>
+          <t>0.31845</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6790,12 +6790,12 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.000532</t>
+          <t>0.001303</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6805,22 +6805,22 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0.000122</t>
+          <t>0.00013</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.000668</t>
+          <t>0.001501</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.0731201</t>
+          <t>0.0809858</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.20487</t>
+          <t>0.282765</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6878,12 +6878,12 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>8.5e-05</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.000441</t>
+          <t>0.001201</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6893,22 +6893,22 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.000507</t>
+          <t>0.001409</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.0695371</t>
+          <t>0.106552</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.161113</t>
+          <t>0.331391</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6966,12 +6966,12 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.000508</t>
+          <t>0.001152</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6981,22 +6981,22 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.000641</t>
+          <t>0.001341</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0.0668201</t>
+          <t>0.113777</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.195837</t>
+          <t>0.315011</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -7054,12 +7054,12 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.000557</t>
+          <t>0.001205</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7069,22 +7069,22 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.000135</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.000707</t>
+          <t>0.001415</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0.075095</t>
+          <t>0.106381</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.204603</t>
+          <t>0.308705</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -7142,12 +7142,12 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.000536</t>
+          <t>0.001119</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7157,22 +7157,22 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.000118</t>
+          <t>0.00013</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.000671</t>
+          <t>0.001325</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0.08104</t>
+          <t>0.0899898</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.210565</t>
+          <t>0.293218</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -7230,12 +7230,12 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3.2e-05</t>
+          <t>3.1e-05</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.000516</t>
+          <t>0.001369</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7245,22 +7245,22 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>0.00014</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.00065</t>
+          <t>0.00154</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.086332</t>
+          <t>0.0807058</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.21497</t>
+          <t>0.280687</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7318,12 +7318,12 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>3.9e-05</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.000581</t>
+          <t>0.001324</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7333,22 +7333,22 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.000254</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.00085</t>
+          <t>0.001494</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0.105936</t>
+          <t>0.0862246</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.279737</t>
+          <t>0.286724</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7406,12 +7406,12 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>5.3e-05</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.000477</t>
+          <t>0.001234</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7421,22 +7421,22 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>0.000133</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.000596</t>
+          <t>0.00142</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.086284</t>
+          <t>0.110271</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.214893</t>
+          <t>0.308435</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7494,12 +7494,12 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.00048</t>
+          <t>0.001757</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7509,22 +7509,22 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.000115</t>
+          <t>0.000148</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.000608</t>
+          <t>0.001982</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0.066354</t>
+          <t>0.0892007</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.19631</t>
+          <t>0.296302</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7582,12 +7582,12 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.2e-05</t>
+          <t>6e-05</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.000529</t>
+          <t>0.001184</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7597,22 +7597,22 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.000207</t>
+          <t>0.000147</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.000748</t>
+          <t>0.001391</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.0900342</t>
+          <t>0.0867109</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.25715</t>
+          <t>0.284086</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7670,12 +7670,12 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2.7e-05</t>
+          <t>9.7e-05</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.000495</t>
+          <t>0.001443</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7685,22 +7685,22 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.000133</t>
+          <t>0.000119</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.000655</t>
+          <t>0.001659</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.065764</t>
+          <t>0.0825468</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.194724</t>
+          <t>0.289672</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7758,12 +7758,12 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.9e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.000421</t>
+          <t>0.001275</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7773,22 +7773,22 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.00056</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.001475</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0.059511</t>
+          <t>0.0779058</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.118913</t>
+          <t>0.302269</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7846,12 +7846,12 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>5.3e-05</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.000531</t>
+          <t>0.001287</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7861,22 +7861,22 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.00011</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.000665</t>
+          <t>0.001463</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.076587</t>
+          <t>0.111815</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.208792</t>
+          <t>0.32115</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7934,12 +7934,12 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>6.5e-05</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.000485</t>
+          <t>0.001484</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7949,22 +7949,22 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.000107</t>
+          <t>0.000137</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.000607</t>
+          <t>0.001686</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0.0696961</t>
+          <t>0.0754668</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.199224</t>
+          <t>0.27582</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -8022,12 +8022,12 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>3e-05</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.000546</t>
+          <t>0.001202</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8037,22 +8037,22 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.000205</t>
+          <t>0.000129</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.000774</t>
+          <t>0.001361</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0.086377</t>
+          <t>0.105146</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.253011</t>
+          <t>0.322389</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8110,12 +8110,12 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.8e-05</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.000556</t>
+          <t>0.001323</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.000185</t>
+          <t>0.000122</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.000759</t>
+          <t>0.001492</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0.090271</t>
+          <t>0.0884288</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.258923</t>
+          <t>0.29082</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -8198,12 +8198,12 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>0.000116</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.000545</t>
+          <t>0.000856</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8213,22 +8213,22 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>0.000683</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.000685</t>
+          <t>0.001655</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0.0933151</t>
+          <t>0.0610799</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.226406</t>
+          <t>0.134353</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -8286,12 +8286,12 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>3.2e-05</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.000445</t>
+          <t>0.000945</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8301,22 +8301,22 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>5.5e-05</t>
+          <t>0.000585</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.000522</t>
+          <t>0.001562</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0.0683761</t>
+          <t>0.0587698</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.159613</t>
+          <t>0.131815</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -8374,12 +8374,12 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.000543</t>
+          <t>0.001318</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8389,22 +8389,22 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0.000208</t>
+          <t>0.000138</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.000773</t>
+          <t>0.001496</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0.08306</t>
+          <t>0.0801836</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.253527</t>
+          <t>0.281882</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -8462,12 +8462,12 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.8e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.001353</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8477,22 +8477,22 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.000106</t>
+          <t>0.000124</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.000624</t>
+          <t>0.001543</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0.091032</t>
+          <t>0.0864659</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.223546</t>
+          <t>0.284066</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8550,12 +8550,12 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>3.8e-05</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.000574</t>
+          <t>0.00122</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8565,22 +8565,22 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0.00026</t>
+          <t>0.00013</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.000849</t>
+          <t>0.001388</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0.108106</t>
+          <t>0.0803819</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.276727</t>
+          <t>0.281596</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8638,12 +8638,12 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3e-05</t>
+          <t>4.5e-05</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.000559</t>
+          <t>0.001148</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8653,22 +8653,22 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.00022</t>
+          <t>0.000125</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.000809</t>
+          <t>0.001318</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0.105445</t>
+          <t>0.0877519</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0.273574</t>
+          <t>0.287394</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -8726,12 +8726,12 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>5e-06</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.00054</t>
+          <t>0.000903</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8741,22 +8741,22 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.000116</t>
+          <t>0.00023</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.000679</t>
+          <t>0.001138</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0.0738771</t>
+          <t>0.0614139</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0.205311</t>
+          <t>0.132426</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -8814,12 +8814,12 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>3.2e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.000443</t>
+          <t>0.001225</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8829,22 +8829,22 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.000528</t>
+          <t>0.001399</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>0.0959171</t>
+          <t>0.0872878</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.188667</t>
+          <t>0.284336</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8902,12 +8902,12 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.000439</t>
+          <t>0.00116</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8917,22 +8917,22 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>0.000143</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.000505</t>
+          <t>0.001396</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0.0576141</t>
+          <t>0.0857218</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.156885</t>
+          <t>0.312583</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8990,12 +8990,12 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>1.2e-05</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.000585</t>
+          <t>0.00147</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9005,22 +9005,22 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.000228</t>
+          <t>0.000167</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.000834</t>
+          <t>0.001649</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.078058</t>
+          <t>0.113367</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.248785</t>
+          <t>0.315326</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9078,12 +9078,12 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>1.8e-05</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.000487</t>
+          <t>0.001461</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9093,22 +9093,22 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.00012</t>
+          <t>6.5e-05</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.000623</t>
+          <t>0.001544</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0.0692711</t>
+          <t>0.0805799</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.198994</t>
+          <t>0.236199</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9166,12 +9166,12 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.000431</t>
+          <t>0.001215</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9181,22 +9181,22 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.000369</t>
+          <t>0.000616</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.000817</t>
+          <t>0.001874</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0.05632</t>
+          <t>0.0580269</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.116024</t>
+          <t>0.130339</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9254,12 +9254,12 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>1.1e-05</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.000529</t>
+          <t>0.001152</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9269,22 +9269,22 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>0.000126</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.000664</t>
+          <t>0.001289</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>0.0639681</t>
+          <t>0.0780088</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0.197271</t>
+          <t>0.272661</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
